--- a/api/reports.xlsx
+++ b/api/reports.xlsx
@@ -9,6 +9,14 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reports8" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -135,6 +143,270 @@
       <rowOff>0</rowOff>
     </from>
     <ext cx="5838825" cy="4229100"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9810750" cy="9315450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3552825" cy="4286250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3952875" cy="4933950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8296275" cy="5810250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="19507200" cy="5248275"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="15792450" cy="5876925"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="14601825" cy="5743575"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9344025" cy="10715625"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -456,6 +728,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>loda sa ha</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -481,4 +780,193 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>loda sa h</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>loda</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>loda sa h</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>loda</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>awfawf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>afdd</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ewaf</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>